--- a/Regression/sprint_regression/NRG_regression/file_from_sap/export.xlsx
+++ b/Regression/sprint_regression/NRG_regression/file_from_sap/export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMALYGIN\Downloads\Regression-master (5)\Regression-master\Regression\sprint_regression\NRG_regression\file_from_sap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83AE5B25-8C7D-4D87-B2CC-AE492041C042}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4984189-B85A-465F-B0A6-9AA3B9C10935}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2115" windowWidth="26505" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+  <si>
+    <t>5000003779269416</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Application document posted</t>
+  </si>
+  <si>
+    <t>IDOC Processed Sucessfully.</t>
+  </si>
+  <si>
+    <t>NE002</t>
+  </si>
+  <si>
+    <t>ZESUERIDERS</t>
+  </si>
+  <si>
+    <t>5000003779269417</t>
+  </si>
+  <si>
+    <t>NE005</t>
+  </si>
+  <si>
+    <t>5000003779269418</t>
+  </si>
+  <si>
+    <t>5000003779269419</t>
+  </si>
+  <si>
+    <t>P0008</t>
+  </si>
+  <si>
+    <t>5000003779269420</t>
+  </si>
+  <si>
+    <t>P0010</t>
+  </si>
+  <si>
+    <t>5000003779269421</t>
+  </si>
+  <si>
+    <t>P0025</t>
+  </si>
+  <si>
+    <t>5000003779269422</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>5000003779269423</t>
+  </si>
   <si>
     <t>IDoc number</t>
   </si>
@@ -415,42 +472,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD150"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
         <v>6</v>
       </c>
     </row>
